--- a/2022/上机/CS00600131上机记录.xlsx
+++ b/2022/上机/CS00600131上机记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD55DC-A352-45E0-B2ED-CE124FE4B703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D8F96-B262-4835-8AC7-9E93F5A9008D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="175">
   <si>
     <t>学号</t>
   </si>
@@ -548,6 +548,21 @@
   </si>
   <si>
     <t>刘贤</t>
+  </si>
+  <si>
+    <t>满分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代佳宝</t>
+  </si>
+  <si>
+    <t>2022.11.3 19:00检查第1,2次练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.9 20:40检查第3,4次练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,7 +608,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -623,13 +638,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +663,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -975,62 +1010,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1045,10 +1080,18 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="22.65" customHeight="1">
       <c r="A6" s="1">
@@ -1063,10 +1106,18 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="22.65" customHeight="1">
       <c r="A7" s="1">
@@ -1117,10 +1168,18 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="22.65" customHeight="1">
       <c r="A10" s="1">
@@ -1135,41 +1194,57 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="22.65" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="3">
+        <v>21049200411</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="22.65" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1181,13 +1256,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1199,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -1217,10 +1292,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -1235,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -1253,10 +1328,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -1264,20 +1339,22 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="22.65" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1289,28 +1366,34 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="2">
+        <v>300</v>
+      </c>
+      <c r="G19" s="2">
+        <v>500</v>
+      </c>
+      <c r="H19" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="22.65" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -1325,49 +1408,57 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2">
+        <v>500</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="22.65" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>500</v>
+      </c>
+      <c r="H22" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="22.65" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1379,16 +1470,18 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>580</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
@@ -1397,13 +1490,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1415,13 +1508,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1433,13 +1526,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1451,10 +1544,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -1469,10 +1562,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -1487,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1505,10 +1598,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1523,13 +1616,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1541,10 +1634,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1554,15 +1647,15 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="21.6" customHeight="1">
+    <row r="34" spans="1:8" ht="22.65" customHeight="1">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -1572,18 +1665,18 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="22.65" customHeight="1">
+    <row r="35" spans="1:8" ht="21.6" customHeight="1">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1595,10 +1688,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1613,10 +1706,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -1631,10 +1724,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -1649,10 +1742,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1667,10 +1760,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1685,13 +1778,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1703,13 +1796,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1721,31 +1814,39 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="22.65" customHeight="1">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1757,10 +1858,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -1775,31 +1876,35 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="2">
+        <v>400</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="22.65" customHeight="1">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1811,10 +1916,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -1829,10 +1934,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -1847,10 +1952,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -1865,10 +1970,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -1883,10 +1988,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -1901,10 +2006,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -1919,16 +2024,18 @@
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2">
+        <v>540</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
@@ -1937,28 +2044,28 @@
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1">
+    <row r="56" spans="1:8" ht="22.65" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -1968,15 +2075,15 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="22.65" customHeight="1">
+    <row r="57" spans="1:8" ht="27" customHeight="1">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -1991,10 +2098,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -2009,10 +2116,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2027,13 +2134,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2045,13 +2152,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2063,10 +2170,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -2081,10 +2188,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -2099,13 +2206,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2117,13 +2224,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2135,13 +2242,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2153,28 +2260,34 @@
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="F67" s="2">
+        <v>560</v>
+      </c>
+      <c r="G67" s="2">
+        <v>480</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="22.65" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2189,10 +2302,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -2207,28 +2320,32 @@
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="G70" s="2">
+        <v>100</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="22.65" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -2243,10 +2360,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2261,10 +2378,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2279,16 +2396,18 @@
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2">
+        <v>580</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
@@ -2297,13 +2416,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2315,10 +2434,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -2326,17 +2445,19 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="22.65" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -2351,10 +2472,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -2369,10 +2490,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -2387,10 +2508,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -2405,10 +2526,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -2423,18 +2544,65 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>480</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="22.65" customHeight="1">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="D84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84">
+        <v>700</v>
+      </c>
+      <c r="F84">
+        <v>600</v>
+      </c>
+      <c r="G84">
+        <v>700</v>
+      </c>
+      <c r="H84">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="32.4">
+      <c r="B85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2456,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -2472,62 +2640,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -2659,32 +2827,36 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="3">
+        <v>21049200411</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="22.65" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2696,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -2714,10 +2886,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -2732,10 +2904,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -2750,10 +2922,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -2768,13 +2940,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2786,13 +2958,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2804,10 +2976,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -2822,10 +2994,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -2840,13 +3012,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2858,13 +3030,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2876,10 +3048,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -2894,13 +3066,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2912,13 +3084,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2930,13 +3102,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2948,10 +3120,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -2966,10 +3138,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -2984,13 +3156,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3002,10 +3174,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -3020,13 +3192,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3038,10 +3210,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -3051,15 +3223,15 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="21.6" customHeight="1">
+    <row r="34" spans="1:8" ht="22.65" customHeight="1">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -3069,18 +3241,18 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="22.65" customHeight="1">
+    <row r="35" spans="1:8" ht="21.6" customHeight="1">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3092,10 +3264,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -3110,10 +3282,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -3128,10 +3300,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -3146,10 +3318,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -3164,10 +3336,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -3182,13 +3354,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3200,13 +3372,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3218,13 +3390,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3236,13 +3408,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3254,10 +3426,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -3272,13 +3444,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3290,13 +3462,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3308,10 +3480,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -3326,10 +3498,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -3344,10 +3516,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -3362,10 +3534,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -3380,10 +3552,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -3398,10 +3570,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -3416,13 +3588,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -3434,28 +3606,28 @@
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1">
+    <row r="56" spans="1:8" ht="22.65" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -3465,15 +3637,15 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="22.65" customHeight="1">
+    <row r="57" spans="1:8" ht="27" customHeight="1">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -3488,10 +3660,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -3506,10 +3678,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -3524,13 +3696,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3542,13 +3714,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3560,10 +3732,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -3578,10 +3750,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -3596,13 +3768,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -3614,13 +3786,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3632,13 +3804,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3650,13 +3822,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3668,10 +3840,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -3686,10 +3858,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -3704,10 +3876,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -3722,10 +3894,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -3740,10 +3912,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -3758,10 +3930,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -3776,13 +3948,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3794,13 +3966,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -3812,10 +3984,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -3830,10 +4002,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -3848,10 +4020,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -3866,10 +4038,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -3884,10 +4056,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -3902,10 +4074,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -3920,10 +4092,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -3932,6 +4104,24 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" ht="22.65" customHeight="1">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/2022/上机/CS00600131上机记录.xlsx
+++ b/2022/上机/CS00600131上机记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D8F96-B262-4835-8AC7-9E93F5A9008D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85786A6C-BBAF-437E-BDD0-970F0A4BCC01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1-4次" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="174">
   <si>
     <t>学号</t>
   </si>
@@ -304,12 +304,6 @@
     <t>兰新悦</t>
   </si>
   <si>
-    <t>22049200262</t>
-  </si>
-  <si>
-    <t>席靖怡</t>
-  </si>
-  <si>
     <t>22049200263</t>
   </si>
   <si>
@@ -562,6 +556,10 @@
   </si>
   <si>
     <t>2022.11.9 20:40检查第3,4次练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5次满分600,第6,7,8次满分700，23.1.4.11:30统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -994,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1215,7 +1213,7 @@
         <v>21049200411</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -1820,20 +1818,12 @@
         <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="22.65" customHeight="1">
       <c r="A44" s="1">
@@ -1846,7 +1836,7 @@
         <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1868,8 +1858,12 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="2">
+        <v>400</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="22.65" customHeight="1">
       <c r="A46" s="1">
@@ -1882,16 +1876,12 @@
         <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>400</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="22.65" customHeight="1">
       <c r="A47" s="1">
@@ -1904,7 +1894,7 @@
         <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2015,7 +2005,9 @@
         <v>3</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2">
+        <v>540</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
@@ -2030,12 +2022,10 @@
         <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2">
-        <v>540</v>
-      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
@@ -2050,14 +2040,14 @@
         <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="22.65" customHeight="1">
+    <row r="56" spans="1:8" ht="27" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2075,7 +2065,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="27" customHeight="1">
+    <row r="57" spans="1:8" ht="22.65" customHeight="1">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2140,7 +2130,7 @@
         <v>124</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2158,7 +2148,7 @@
         <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2212,7 +2202,7 @@
         <v>132</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2230,7 +2220,7 @@
         <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2248,12 +2238,18 @@
         <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="F66" s="2">
+        <v>560</v>
+      </c>
+      <c r="G66" s="2">
+        <v>480</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="22.65" customHeight="1">
       <c r="A67" s="1">
@@ -2266,18 +2262,12 @@
         <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2">
-        <v>560</v>
-      </c>
-      <c r="G67" s="2">
-        <v>480</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="22.65" customHeight="1">
       <c r="A68" s="1">
@@ -2312,8 +2302,12 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="G69" s="2">
+        <v>100</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="22.65" customHeight="1">
       <c r="A70" s="1">
@@ -2330,12 +2324,8 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2">
-        <v>100</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="22.65" customHeight="1">
       <c r="A71" s="1">
@@ -2387,7 +2377,9 @@
         <v>3</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2">
+        <v>580</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
@@ -2402,12 +2394,10 @@
         <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2">
-        <v>580</v>
-      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
@@ -2422,12 +2412,14 @@
         <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="22.65" customHeight="1">
       <c r="A76" s="1">
@@ -2445,9 +2437,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2">
-        <v>100</v>
-      </c>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" ht="22.65" customHeight="1">
       <c r="A77" s="1">
@@ -2535,7 +2525,9 @@
         <v>3</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2">
+        <v>480</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
@@ -2553,55 +2545,35 @@
         <v>3</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2">
-        <v>480</v>
-      </c>
-      <c r="G82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="22.65" customHeight="1">
-      <c r="A83" s="1">
-        <v>79</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="1:8">
+      <c r="D83" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2">
-        <v>0</v>
-      </c>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="D84" s="5" t="s">
+      <c r="E83">
+        <v>700</v>
+      </c>
+      <c r="F83">
+        <v>600</v>
+      </c>
+      <c r="G83">
+        <v>700</v>
+      </c>
+      <c r="H83">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="32.4">
+      <c r="B84" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E84">
-        <v>700</v>
-      </c>
-      <c r="F84">
-        <v>600</v>
-      </c>
-      <c r="G84">
-        <v>700</v>
-      </c>
-      <c r="H84">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="32.4">
-      <c r="B85" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>174</v>
+      <c r="C84" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2624,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -2710,10 +2682,18 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="22.65" customHeight="1">
       <c r="A6" s="1">
@@ -2728,10 +2708,18 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="22.65" customHeight="1">
       <c r="A7" s="1">
@@ -2747,9 +2735,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2">
+        <v>350</v>
+      </c>
+      <c r="G7" s="2">
+        <v>500</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="22.65" customHeight="1">
       <c r="A8" s="1">
@@ -2782,10 +2776,18 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="22.65" customHeight="1">
       <c r="A10" s="1">
@@ -2800,10 +2802,18 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="22.65" customHeight="1">
       <c r="A11" s="1">
@@ -2831,7 +2841,7 @@
         <v>21049200411</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
@@ -2842,8 +2852,12 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="22.65" customHeight="1">
       <c r="A13" s="1">
@@ -2896,8 +2910,12 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="22.65" customHeight="1">
       <c r="A16" s="1">
@@ -3002,10 +3020,18 @@
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="22.65" customHeight="1">
       <c r="A22" s="1">
@@ -3020,10 +3046,18 @@
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="22.65" customHeight="1">
       <c r="A23" s="1">
@@ -3111,7 +3145,9 @@
         <v>3</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>600</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
@@ -3396,7 +3432,7 @@
         <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3414,7 +3450,7 @@
         <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3450,7 +3486,7 @@
         <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3468,7 +3504,7 @@
         <v>98</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3594,7 +3630,7 @@
         <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -3612,14 +3648,14 @@
         <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="22.65" customHeight="1">
+    <row r="56" spans="1:8" ht="27" customHeight="1">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3637,7 +3673,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="27" customHeight="1">
+    <row r="57" spans="1:8" ht="22.65" customHeight="1">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3702,7 +3738,7 @@
         <v>124</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3720,7 +3756,7 @@
         <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3774,7 +3810,7 @@
         <v>132</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -3792,7 +3828,7 @@
         <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3810,7 +3846,7 @@
         <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3828,7 +3864,7 @@
         <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3867,9 +3903,15 @@
         <v>3</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="2">
+        <v>400</v>
+      </c>
+      <c r="G69" s="2">
+        <v>500</v>
+      </c>
+      <c r="H69" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="22.65" customHeight="1">
       <c r="A70" s="1">
@@ -3938,10 +3980,18 @@
       <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="22.65" customHeight="1">
       <c r="A74" s="1">
@@ -3954,7 +4004,7 @@
         <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3972,7 +4022,7 @@
         <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -4067,7 +4117,9 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="22.65" customHeight="1">
       <c r="A81" s="1">
@@ -4101,27 +4153,16 @@
         <v>3</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>500</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="22.65" customHeight="1">
-      <c r="A83" s="1">
-        <v>79</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/2022/上机/CS00600131上机记录.xlsx
+++ b/2022/上机/CS00600131上机记录.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2022\上机\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85786A6C-BBAF-437E-BDD0-970F0A4BCC01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729BBD96-C52E-42B9-BADD-94A00C58649A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1-4次" sheetId="2" r:id="rId1"/>
     <sheet name="第5-8次" sheetId="5" r:id="rId2"/>
+    <sheet name="计算ok" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'第1-4次'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'第5-8次'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">计算ok!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="176">
   <si>
     <t>学号</t>
   </si>
@@ -560,6 +562,14 @@
   </si>
   <si>
     <t>第5次满分600,第6,7,8次满分700，23.1.4.11:30统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分标准： 每未完成一项减10分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -597,6 +607,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -606,7 +625,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -647,13 +666,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +698,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE282B9-2B8E-4EC9-90D5-A29D8CB99414}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -1008,62 +1045,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -1183,11 +1220,11 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
+      <c r="B10" s="2">
+        <v>21049200411</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1209,11 +1246,11 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>21049200411</v>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -2577,6 +2614,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B5:H82">
+    <sortCondition ref="B5:B82"/>
+  </sortState>
   <mergeCells count="9">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:A4"/>
@@ -2598,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D35C9E-F1F4-4907-9699-CFA9BABB4ABD}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
@@ -2612,62 +2652,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="22.65" customHeight="1">
       <c r="A5" s="1">
@@ -2793,25 +2833,25 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="B10" s="6">
+        <v>21049200411</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2820,44 +2860,44 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="22.65" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>21049200411</v>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="22.65" customHeight="1">
       <c r="A13" s="1">
@@ -4165,6 +4205,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B5:H82">
+    <sortCondition ref="B5:B82"/>
+  </sortState>
   <mergeCells count="9">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:A4"/>
@@ -4180,4 +4223,2269 @@
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508322AD-F036-406A-8D54-DBC8941CAC07}">
+  <dimension ref="A1:M87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
+        <v>350</v>
+      </c>
+      <c r="K7" s="6">
+        <v>500</v>
+      </c>
+      <c r="L7" s="6">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>21049200411</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>200</v>
+      </c>
+      <c r="M15" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>300</v>
+      </c>
+      <c r="G19" s="6">
+        <v>500</v>
+      </c>
+      <c r="H19" s="6">
+        <v>300</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <v>500</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>500</v>
+      </c>
+      <c r="H22" s="6">
+        <v>200</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>580</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
+        <v>600</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="21.6" customHeight="1">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>400</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>540</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="27" customHeight="1">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
+        <v>560</v>
+      </c>
+      <c r="G66" s="6">
+        <v>480</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6">
+        <v>100</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6">
+        <v>400</v>
+      </c>
+      <c r="K69" s="6">
+        <v>500</v>
+      </c>
+      <c r="L69" s="6">
+        <v>300</v>
+      </c>
+      <c r="M69" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <v>580</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6">
+        <v>100</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6">
+        <v>200</v>
+      </c>
+      <c r="M80" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
+        <v>480</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="22.65" customHeight="1">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6">
+        <v>500</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="D83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83">
+        <v>700</v>
+      </c>
+      <c r="F83">
+        <v>600</v>
+      </c>
+      <c r="G83">
+        <v>700</v>
+      </c>
+      <c r="H83">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="32.4">
+      <c r="B84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="E87" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.27559055118110237" bottom="0.27559055118110237" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>